--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value990.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value990.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.577167566373486</v>
+        <v>0.4046949148178101</v>
       </c>
       <c r="B1">
-        <v>4.3226858277869</v>
+        <v>0.366361141204834</v>
       </c>
       <c r="C1">
-        <v>4.320652818696613</v>
+        <v>3.402585029602051</v>
       </c>
       <c r="D1">
-        <v>1.260741134582364</v>
+        <v>1.604530334472656</v>
       </c>
       <c r="E1">
-        <v>0.76727092617907</v>
+        <v>1.131492972373962</v>
       </c>
     </row>
   </sheetData>
